--- a/application/compiled_results.xlsx
+++ b/application/compiled_results.xlsx
@@ -530,25 +530,25 @@
         <v>256.4</v>
       </c>
       <c r="E2" t="n">
-        <v>2.754295013959752</v>
+        <v>2.754295093912969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2967405713178279</v>
+        <v>0.2967405799317793</v>
       </c>
       <c r="G2" t="n">
         <v>13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>1.268238915263288</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2609548325727463</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.91679686705656</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>87.94039568429866</v>
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -575,25 +575,25 @@
         <v>242.44</v>
       </c>
       <c r="E3" t="n">
-        <v>2.671274236176487</v>
+        <v>2.671274320117134</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272126729724569</v>
+        <v>0.2721267382757291</v>
       </c>
       <c r="G3" t="n">
         <v>13.21</v>
       </c>
       <c r="H3" t="n">
-        <v>1.235427474261389</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2402845124888821</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.91905878817538</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>88.29875430909864</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -620,25 +620,25 @@
         <v>824.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8468911846680726</v>
+        <v>0.8468912096005056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.293333297163945</v>
+        <v>0.2933333057996623</v>
       </c>
       <c r="G4" t="n">
         <v>13.21</v>
       </c>
       <c r="H4" t="n">
-        <v>0.411513967489334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2604397055078215</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.229594753358645</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>88.78627418907061</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0.129384</v>
@@ -677,25 +677,25 @@
         <v>146.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12.48937108880211</v>
+        <v>12.48937153880213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7667243171293716</v>
+        <v>0.7667243447549388</v>
       </c>
       <c r="G5" t="n">
         <v>13.21</v>
       </c>
       <c r="H5" t="n">
-        <v>12.50179183071309</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7679519013579226</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>13.202</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>100.1601076424897</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -722,25 +722,25 @@
         <v>74.12</v>
       </c>
       <c r="E6" t="n">
-        <v>11.17318161995798</v>
+        <v>11.17318197105791</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3479851576153914</v>
+        <v>0.3479851685502862</v>
       </c>
       <c r="G6" t="n">
         <v>13.21</v>
       </c>
       <c r="H6" t="n">
-        <v>10.32136498111082</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.321650393692168</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.202</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>92.43221633253401</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -767,25 +767,25 @@
         <v>103.1</v>
       </c>
       <c r="E7" t="n">
-        <v>12.48937108880214</v>
+        <v>12.48937008880211</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5410628137990309</v>
+        <v>0.5410627704771676</v>
       </c>
       <c r="G7" t="n">
         <v>13.21</v>
       </c>
       <c r="H7" t="n">
-        <v>12.47522628080912</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.540859466219941</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.96241701076033</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -812,25 +812,25 @@
         <v>234.33</v>
       </c>
       <c r="E8" t="n">
-        <v>2.840597618298034</v>
+        <v>2.840597712148029</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2796958759451869</v>
+        <v>0.2796958851860087</v>
       </c>
       <c r="G8" t="n">
         <v>13.21</v>
       </c>
       <c r="H8" t="n">
-        <v>2.369447442581004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2334814117411403</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>83.47688751295587</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -857,25 +857,25 @@
         <v>246.3</v>
       </c>
       <c r="E9" t="n">
-        <v>2.95320442884372</v>
+        <v>2.95320452739445</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3056373141864855</v>
+        <v>0.3056373243858406</v>
       </c>
       <c r="G9" t="n">
         <v>13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.498925083107728</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.25875949460926</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.203</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>84.66227211098219</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -933,25 +933,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>24.17714683240979</v>
+        <v>24.17714543978243</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9048674210514481</v>
+        <v>0.9048673689301976</v>
       </c>
       <c r="G11" t="n">
         <v>13.21</v>
       </c>
       <c r="H11" t="n">
-        <v>24.05179029085106</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9008577083388436</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>99.55687290543123</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -978,25 +978,25 @@
         <v>90.12</v>
       </c>
       <c r="E12" t="n">
-        <v>12.88819954855849</v>
+        <v>12.88819968611034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4880472684948556</v>
+        <v>0.4880472737036363</v>
       </c>
       <c r="G12" t="n">
         <v>13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>12.94498090939733</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4905316517497274</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.201</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>100.509045622268</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1023,25 +1023,25 @@
         <v>74.12</v>
       </c>
       <c r="E13" t="n">
-        <v>12.52385380260014</v>
+        <v>12.52385415260007</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3900514094987314</v>
+        <v>0.3900514203993672</v>
       </c>
       <c r="G13" t="n">
         <v>13.21</v>
       </c>
       <c r="H13" t="n">
-        <v>1.153482196558028</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04803224577542726</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9.880176046430041</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.31433718882215</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1068,25 +1068,25 @@
         <v>90.08</v>
       </c>
       <c r="E14" t="n">
-        <v>20.00867324061494</v>
+        <v>20.00867381645108</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7573473691438124</v>
+        <v>0.7573473909397593</v>
       </c>
       <c r="G14" t="n">
         <v>13.21</v>
       </c>
       <c r="H14" t="n">
-        <v>12.71296080196887</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6907393286299999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.202634438662944</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>91.20508722581113</v>
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1113,25 +1113,25 @@
         <v>90.08</v>
       </c>
       <c r="E15" t="n">
-        <v>22.29163217971881</v>
+        <v>22.29163217312563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8437595427847931</v>
+        <v>0.8437595425352351</v>
       </c>
       <c r="G15" t="n">
         <v>13.21</v>
       </c>
       <c r="H15" t="n">
-        <v>14.97844072354616</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5673347962109151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.201</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>67.23891908095644</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1220,25 +1220,25 @@
         <v>174.15</v>
       </c>
       <c r="E18" t="n">
-        <v>9.697797058125396</v>
+        <v>9.69779734362835</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7096513317327596</v>
+        <v>0.7096513526248809</v>
       </c>
       <c r="G18" t="n">
         <v>13.21</v>
       </c>
       <c r="H18" t="n">
-        <v>9.560371636310487</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7001250096984428</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>98.65760527623385</v>
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1265,25 +1265,25 @@
         <v>140.09</v>
       </c>
       <c r="E19" t="n">
-        <v>10.39256460855826</v>
+        <v>10.39256490764931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6117561163590621</v>
+        <v>0.6117561339649936</v>
       </c>
       <c r="G19" t="n">
         <v>13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>10.24061760964614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6031770735554441</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.202</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>98.59763677481851</v>
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1310,25 +1310,25 @@
         <v>137.11</v>
       </c>
       <c r="E20" t="n">
-        <v>9.031913490546716</v>
+        <v>9.031913738772159</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5203521481184724</v>
+        <v>0.5203521624193891</v>
       </c>
       <c r="G20" t="n">
         <v>13.21</v>
       </c>
       <c r="H20" t="n">
-        <v>8.84027580274897</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5096586313976176</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.201</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>97.94494617548496</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1386,25 +1386,25 @@
         <v>122.16</v>
       </c>
       <c r="E22" t="n">
-        <v>6.92148935162427</v>
+        <v>6.921489550820078</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3552851298722287</v>
+        <v>0.3552851400970957</v>
       </c>
       <c r="G22" t="n">
         <v>13.21</v>
       </c>
       <c r="H22" t="n">
-        <v>6.841831635826814</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3514356746826133</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13.201</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>98.91651666057632</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1431,25 +1431,25 @@
         <v>104.15</v>
       </c>
       <c r="E23" t="n">
-        <v>6.747110743928363</v>
+        <v>6.747110938105599</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2952742428427363</v>
+        <v>0.2952742513405272</v>
       </c>
       <c r="G23" t="n">
         <v>13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>6.643800375279648</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2909733319865945</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>98.54341820853216</v>
+        <v>0</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1476,25 +1476,25 @@
         <v>163.15</v>
       </c>
       <c r="E24" t="n">
-        <v>7.076164741342049</v>
+        <v>7.076164949434923</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4851024467288394</v>
+        <v>0.4851024609945279</v>
       </c>
       <c r="G24" t="n">
         <v>13.21</v>
       </c>
       <c r="H24" t="n">
-        <v>6.965072575817365</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4778121209195073</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.201</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>98.49715748529151</v>
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1521,25 +1521,25 @@
         <v>329.4</v>
       </c>
       <c r="E25" t="n">
-        <v>2.50562967989134</v>
+        <v>2.505629740434756</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3468078596985679</v>
+        <v>0.3468078680784704</v>
       </c>
       <c r="G25" t="n">
         <v>13.21</v>
       </c>
       <c r="H25" t="n">
-        <v>0.391626317309709</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2396131352837115</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.988381994697317</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>69.09103371877849</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1566,25 +1566,25 @@
         <v>272.25</v>
       </c>
       <c r="E26" t="n">
-        <v>3.961995810676282</v>
+        <v>3.961995936824516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4532422138245675</v>
+        <v>0.4532422282556037</v>
       </c>
       <c r="G26" t="n">
         <v>13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>3.757721689427165</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4363150450428258</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.01498226616811</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>96.26531504228033</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1611,25 +1611,25 @@
         <v>228.24</v>
       </c>
       <c r="E27" t="n">
-        <v>3.961995810209922</v>
+        <v>3.961995936608447</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3799742988839029</v>
+        <v>0.3799743110061245</v>
       </c>
       <c r="G27" t="n">
         <v>13.21</v>
       </c>
       <c r="H27" t="n">
-        <v>3.757721689427165</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3657834559433408</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.01498226616811</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>96.26531505361157</v>
+        <v>0</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1687,25 +1687,25 @@
         <v>76.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.76280175777636</v>
+        <v>17.76280227208472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5679204466353752</v>
+        <v>0.5679204630790777</v>
       </c>
       <c r="G29" t="n">
         <v>13.21</v>
       </c>
       <c r="H29" t="n">
-        <v>15.01367621111874</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4803877981271555</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>84.58716374330176</v>
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
